--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dsc2-Dsg1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dsc2-Dsg1a.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1751586666666667</v>
+        <v>0.266205</v>
       </c>
       <c r="H2">
-        <v>0.5254760000000001</v>
+        <v>0.7986150000000001</v>
       </c>
       <c r="I2">
-        <v>0.199774098589884</v>
+        <v>0.395454585968905</v>
       </c>
       <c r="J2">
-        <v>0.199774098589884</v>
+        <v>0.395454585968905</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03267066666666667</v>
+        <v>0.01449333333333333</v>
       </c>
       <c r="N2">
-        <v>0.098012</v>
+        <v>0.04348</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.005722550412444445</v>
+        <v>0.0038581978</v>
       </c>
       <c r="R2">
-        <v>0.051502953712</v>
+        <v>0.0347237802</v>
       </c>
       <c r="S2">
-        <v>0.199774098589884</v>
+        <v>0.395454585968905</v>
       </c>
       <c r="T2">
-        <v>0.199774098589884</v>
+        <v>0.395454585968905</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7016249999999999</v>
+        <v>0.406957</v>
       </c>
       <c r="H3">
-        <v>2.104875</v>
+        <v>1.220871</v>
       </c>
       <c r="I3">
-        <v>0.800225901410116</v>
+        <v>0.604545414031095</v>
       </c>
       <c r="J3">
-        <v>0.8002259014101158</v>
+        <v>0.6045454140310951</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -611,10 +611,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.03267066666666667</v>
+        <v>0.01449333333333333</v>
       </c>
       <c r="N3">
-        <v>0.098012</v>
+        <v>0.04348</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0229225565</v>
+        <v>0.005898163453333332</v>
       </c>
       <c r="R3">
-        <v>0.2063030085</v>
+        <v>0.05308347107999999</v>
       </c>
       <c r="S3">
-        <v>0.800225901410116</v>
+        <v>0.604545414031095</v>
       </c>
       <c r="T3">
-        <v>0.8002259014101158</v>
+        <v>0.6045454140310951</v>
       </c>
     </row>
   </sheetData>
